--- a/output/Tables/Linear/HIA_sex_walking_2019.xlsx
+++ b/output/Tables/Linear/HIA_sex_walking_2019.xlsx
@@ -1,89 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Linear/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C886F5-CAC7-B04F-8205-22C02C41F360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>tot_cases</t>
-  </si>
-  <si>
-    <t>tot_daly</t>
-  </si>
-  <si>
-    <t>tot_medic_costs</t>
-  </si>
-  <si>
-    <t>low_cases</t>
-  </si>
-  <si>
-    <t>sup_cases</t>
-  </si>
-  <si>
-    <t>low_daly</t>
-  </si>
-  <si>
-    <t>sup_daly</t>
-  </si>
-  <si>
-    <t>low_medic_costs</t>
-  </si>
-  <si>
-    <t>sup_medic_costs</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Breast cancer</t>
-  </si>
-  <si>
-    <t>Colon cancer</t>
-  </si>
-  <si>
-    <t>CVD</t>
-  </si>
-  <si>
-    <t>Dementia</t>
-  </si>
-  <si>
-    <t>T2 Diabetes</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,117 +350,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>disease</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tot_cases</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tot_daly</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tot_medic_costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>low_cases</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sup_cases</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>low_daly</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sup_daly</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>low_medic_costs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>sup_medic_costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Breast cancer</t>
+        </is>
       </c>
       <c r="C2">
-        <v>4410.0752410313553</v>
+        <v>4410.075241031355</v>
       </c>
       <c r="D2">
-        <v>6890.7076854479919</v>
+        <v>6890.707685447992</v>
       </c>
       <c r="E2">
-        <v>207132413.92076069</v>
+        <v>207132413.9207607</v>
       </c>
       <c r="F2">
-        <v>2205.0376205156781</v>
+        <v>2205.037620515678</v>
       </c>
       <c r="G2">
-        <v>5880.1003213751319</v>
+        <v>5880.100321375132</v>
       </c>
       <c r="H2">
-        <v>2632.7748328093821</v>
+        <v>2632.774832809382</v>
       </c>
       <c r="I2">
-        <v>11373.874754524541</v>
+        <v>11373.87475452454</v>
       </c>
       <c r="J2">
         <v>103566206.9603803</v>
       </c>
       <c r="K2">
-        <v>276176551.89434719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>276176551.8943472</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Colon cancer</t>
+        </is>
       </c>
       <c r="C3">
-        <v>450.37205186343181</v>
+        <v>450.3720518634318</v>
       </c>
       <c r="D3">
-        <v>647.72322126802771</v>
+        <v>647.7232212680277</v>
       </c>
       <c r="E3">
-        <v>12032139.737583449</v>
+        <v>12032139.73758345</v>
       </c>
       <c r="F3">
-        <v>64.338864551918888</v>
+        <v>64.33886455191889</v>
       </c>
       <c r="G3">
-        <v>772.06637462302604</v>
+        <v>772.066374623026</v>
       </c>
       <c r="H3">
-        <v>76.223784356721339</v>
+        <v>76.22378435672134</v>
       </c>
       <c r="I3">
         <v>1280.568563463341</v>
@@ -547,68 +489,76 @@
         <v>1718877.105369065</v>
       </c>
       <c r="K3">
-        <v>20626525.264428761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
+        <v>20626525.26442876</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CVD</t>
+        </is>
       </c>
       <c r="C4">
-        <v>6005.3031890138391</v>
+        <v>6005.303189013839</v>
       </c>
       <c r="D4">
         <v>4728.903074588342</v>
       </c>
       <c r="E4">
-        <v>125739038.17157181</v>
+        <v>125739038.1715718</v>
       </c>
       <c r="F4">
-        <v>3753.3144931336492</v>
+        <v>3753.314493133649</v>
       </c>
       <c r="G4">
-        <v>7881.9604355806632</v>
+        <v>7881.960435580663</v>
       </c>
       <c r="H4">
-        <v>2259.4343464343192</v>
+        <v>2259.434346434319</v>
       </c>
       <c r="I4">
-        <v>7613.2861518572317</v>
+        <v>7613.286151857232</v>
       </c>
       <c r="J4">
-        <v>78586898.857232302</v>
+        <v>78586898.8572323</v>
       </c>
       <c r="K4">
         <v>165032487.6001879</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dementia</t>
+        </is>
       </c>
       <c r="C5">
-        <v>1254.1853048637081</v>
+        <v>1254.185304863708</v>
       </c>
       <c r="D5">
-        <v>1272.3966977055211</v>
+        <v>1272.396697705521</v>
       </c>
       <c r="E5">
         <v>28530207.31503962</v>
       </c>
       <c r="F5">
-        <v>627.09265243185382</v>
+        <v>627.0926524318538</v>
       </c>
       <c r="G5">
-        <v>1791.6932926624399</v>
+        <v>1791.69329266244</v>
       </c>
       <c r="H5">
-        <v>523.76015116516726</v>
+        <v>523.7601511651673</v>
       </c>
       <c r="I5">
         <v>2104.614059815995</v>
@@ -620,24 +570,28 @@
         <v>40757439.02148518</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>T2 Diabetes</t>
+        </is>
       </c>
       <c r="C6">
-        <v>9411.2122740878003</v>
+        <v>9411.2122740878</v>
       </c>
       <c r="D6">
         <v>14950.32435012876</v>
       </c>
       <c r="E6">
-        <v>343641004.97604191</v>
+        <v>343641004.9760419</v>
       </c>
       <c r="F6">
-        <v>4982.4064980464791</v>
+        <v>4982.406498046479</v>
       </c>
       <c r="G6">
         <v>13840.01805012912</v>
@@ -646,24 +600,28 @@
         <v>5861.771522575199</v>
       </c>
       <c r="I6">
-        <v>27564.228307008991</v>
+        <v>27564.22830700899</v>
       </c>
       <c r="J6">
         <v>181927590.8696692</v>
       </c>
       <c r="K6">
-        <v>505354419.08241463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
+        <v>505354419.0824146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mortality</t>
+        </is>
       </c>
       <c r="C7">
-        <v>6884.6556997482539</v>
+        <v>6884.655699748254</v>
       </c>
       <c r="D7">
         <v>80526.12633817966</v>
@@ -672,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2652.3123197884011</v>
+        <v>2652.312319788401</v>
       </c>
       <c r="G7">
-        <v>9975.3103925437736</v>
+        <v>9975.310392543774</v>
       </c>
       <c r="H7">
-        <v>30381.435699765469</v>
+        <v>30381.43569976547</v>
       </c>
       <c r="I7">
-        <v>115051.91177597269</v>
+        <v>115051.9117759727</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -690,12 +648,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Breast cancer</t>
+        </is>
       </c>
       <c r="C8">
         <v>0</v>
@@ -725,27 +687,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colon cancer</t>
+        </is>
       </c>
       <c r="C9">
-        <v>816.92256908656555</v>
+        <v>816.9225690865655</v>
       </c>
       <c r="D9">
-        <v>729.67432303045712</v>
+        <v>729.6743230304571</v>
       </c>
       <c r="E9">
         <v>21824903.35571669</v>
       </c>
       <c r="F9">
-        <v>163.38451381731329</v>
+        <v>163.3845138173133</v>
       </c>
       <c r="G9">
-        <v>1347.9222389928329</v>
+        <v>1347.922238992833</v>
       </c>
       <c r="H9">
         <v>120.2148556548559</v>
@@ -754,65 +720,73 @@
         <v>1388.491326421929</v>
       </c>
       <c r="J9">
-        <v>4364980.6711433418</v>
+        <v>4364980.671143342</v>
       </c>
       <c r="K9">
-        <v>36011090.536932543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
+        <v>36011090.53693254</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CVD</t>
+        </is>
       </c>
       <c r="C10">
-        <v>9146.4414069769628</v>
+        <v>9146.441406976963</v>
       </c>
       <c r="D10">
-        <v>5814.3884639949601</v>
+        <v>5814.38846399496</v>
       </c>
       <c r="E10">
-        <v>191508190.17928359</v>
+        <v>191508190.1792836</v>
       </c>
       <c r="F10">
-        <v>5716.5258793605999</v>
+        <v>5716.5258793606</v>
       </c>
       <c r="G10">
         <v>12004.70434665726</v>
       </c>
       <c r="H10">
-        <v>2778.0711069459412</v>
+        <v>2778.071106945941</v>
       </c>
       <c r="I10">
-        <v>9360.8607485161319</v>
+        <v>9360.860748516132</v>
       </c>
       <c r="J10">
         <v>119692618.8620522</v>
       </c>
       <c r="K10">
-        <v>251354499.61030969</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
+        <v>251354499.6103097</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dementia</t>
+        </is>
       </c>
       <c r="C11">
-        <v>768.35267747069042</v>
+        <v>768.3526774706904</v>
       </c>
       <c r="D11">
-        <v>419.31247919221369</v>
+        <v>419.3124791922137</v>
       </c>
       <c r="E11">
-        <v>17478486.707103271</v>
+        <v>17478486.70710327</v>
       </c>
       <c r="F11">
-        <v>384.17633873534521</v>
+        <v>384.1763387353452</v>
       </c>
       <c r="G11">
         <v>1097.646682100986</v>
@@ -821,74 +795,82 @@
         <v>172.6027487207318</v>
       </c>
       <c r="I11">
-        <v>693.56588299514408</v>
+        <v>693.5658829951441</v>
       </c>
       <c r="J11">
-        <v>8739243.3535516337</v>
+        <v>8739243.353551634</v>
       </c>
       <c r="K11">
         <v>24969266.72443324</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>T2 Diabetes</t>
+        </is>
       </c>
       <c r="C12">
         <v>10056.28260475965</v>
       </c>
       <c r="D12">
-        <v>11744.875025687101</v>
+        <v>11744.8750256871</v>
       </c>
       <c r="E12">
-        <v>367195103.03019392</v>
+        <v>367195103.0301939</v>
       </c>
       <c r="F12">
-        <v>5323.9143201668694</v>
+        <v>5323.914320166869</v>
       </c>
       <c r="G12">
         <v>14788.65088935243</v>
       </c>
       <c r="H12">
-        <v>4604.9685845902286</v>
+        <v>4604.968584590229</v>
       </c>
       <c r="I12">
-        <v>21654.273784537581</v>
+        <v>21654.27378453758</v>
       </c>
       <c r="J12">
         <v>194397407.4865731</v>
       </c>
       <c r="K12">
-        <v>539992798.57381439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
+        <v>539992798.5738144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mortality</t>
+        </is>
       </c>
       <c r="C13">
-        <v>10715.350917464881</v>
+        <v>10715.35091746488</v>
       </c>
       <c r="D13">
-        <v>89796.284785592026</v>
+        <v>89796.28478559203</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4208.2777215192937</v>
+        <v>4208.277721519294</v>
       </c>
       <c r="G13">
         <v>14898.64462889867</v>
       </c>
       <c r="H13">
-        <v>35120.464951555557</v>
+        <v>35120.46495155556</v>
       </c>
       <c r="I13">
         <v>124519.6389807958</v>
